--- a/Souq/src/price/Souq/excel_53_bolsas_e_necessaires.xlsx
+++ b/Souq/src/price/Souq/excel_53_bolsas_e_necessaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,485 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CLUTCH ITAJAI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-itajai-02-08-02-108-003.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CLUTCH JOINVILLE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-joinville-02-08-02-104-054.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOLSA AMOUR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-amour-02-08-04-022-003.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOLSA BISOU</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-bisou-02-08-04-024-004.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BOLSA BONHEUR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-bonheur-02-08-04-023-029.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MALEVICH</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-006.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MALEVICH</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-009.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CLUTCH MOANA AZUL E VERMELHO TAM U</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-moana-02-08-02-041-004.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CLUTCH NAOMI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-naomi-02-08-02-125-008.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>518,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CUTCH MAURA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cutch-maura-02-08-02-124-007.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DECORATIVO DE RATTAN CAMERA COM ALÇA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/decorativo-de-rattan-camera-com-alca-01-01-14-373-024.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CLUTCH LUISA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-002.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CLUTCH LUISA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-055.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MACEIO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-maceio-02-14-01-235-001.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BOLSAS E NECESSAIRES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios/bolsas-e-necessaires.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NECESSAIRE SHANGHAI MULTI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-shanghai-multi-02-07-01-101-243.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
